--- a/assets/Results.xlsx
+++ b/assets/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A003239E-5621-47D7-A0CC-D3A307350147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5609AD2-361B-4A9E-B3C7-3C0EB5C2B7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4F0F26E5-88F5-4418-8C91-86B47A873066}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>36473462</v>
+        <v>36473463</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>36473462</v>
+        <v>36473464</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>36473462</v>
+        <v>36473465</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
